--- a/Supplementary Analyses/Supplementary Method Note 6/Supp-Method-Note-6-univariate-multivariate-regression.xlsx
+++ b/Supplementary Analyses/Supplementary Method Note 6/Supp-Method-Note-6-univariate-multivariate-regression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nusu-my.sharepoint.com/personal/ht_sun_nus_edu_sg/Documents/Documents/Manuscripts/Sun-NG-25/ozone-radical-diagnosis/Supplementary Analyses/Supplementary Method Note 6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_AD4DA82427541F7ACA7EB88E480824766BE8DE14" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE2DD440-CB16-4EA4-B69F-8B4A702C0959}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_AD4DA82427541F7ACA7EB88E480824766BE8DE14" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18E145AF-BF85-442C-A409-2B5EF9317389}"/>
   <bookViews>
-    <workbookView xWindow="62940" yWindow="7785" windowWidth="23040" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4710" yWindow="2550" windowWidth="21600" windowHeight="11175" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,6 +85,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="179" formatCode="0.0000_);[Red]\(0.0000\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -121,9 +125,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -139,6 +145,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -406,16 +416,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -438,11 +448,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>2.2742200000000001E-2</v>
       </c>
       <c r="C4">
@@ -454,14 +464,14 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>2.2600499999999999E-2</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>2.2884000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -484,7 +494,7 @@
         <v>383414.1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -507,11 +517,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>2.1786699999999999E-2</v>
       </c>
       <c r="C10">
@@ -523,14 +533,14 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>2.1641899999999999E-2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>2.19315E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -553,7 +563,7 @@
         <v>159554.6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -576,7 +586,7 @@
         <v>7.2399999999999997E-7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -599,7 +609,7 @@
         <v>3.2199999999999997E-8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -622,7 +632,7 @@
         <v>-1.7700000000000001E-7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -645,7 +655,7 @@
         <v>-3.7699999999999999E-6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -668,7 +678,7 @@
         <v>413267.3</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18">
         <f>(B10-B4)/B4</f>
         <v>-4.2014404938836236E-2</v>
@@ -692,16 +702,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD7BCD2C-97A7-4CA9-A3D9-2B2849A3ED85}">
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" activeCellId="3" sqref="B4 F4:G4 B10 F10:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -724,11 +734,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>13.28309</v>
       </c>
       <c r="C4">
@@ -740,14 +750,14 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>13.2003</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>13.365880000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -770,7 +780,7 @@
         <v>23100000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -793,11 +803,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>12.653449999999999</v>
       </c>
       <c r="C10">
@@ -809,14 +819,14 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>12.56934</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>12.73756</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -839,7 +849,7 @@
         <v>2839646</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -862,7 +872,7 @@
         <v>1.26E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -885,7 +895,7 @@
         <v>-9.5099999999999998E-7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -908,7 +918,7 @@
         <v>1.88E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -931,7 +941,7 @@
         <v>1.5980000000000001E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -954,7 +964,7 @@
         <v>23700000</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18">
         <f>(B10-B4)/B4</f>
         <v>-4.7401621158932164E-2</v>
